--- a/config_6.1/item_gun_config.xlsx
+++ b/config_6.1/item_gun_config.xlsx
@@ -678,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -719,21 +719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,39 +733,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,42 +748,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,7 +764,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -853,11 +786,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -887,25 +887,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,145 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1116,35 +1116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1175,6 +1146,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1192,9 +1190,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,139 +1218,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1399,8 +1399,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1430,6 +1433,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1758,10 +1764,10 @@
   <sheetPr/>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="X24" sqref="X24"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1821,31 +1827,31 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1877,10 +1883,10 @@
       <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="20" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="7"/>
@@ -1913,17 +1919,17 @@
       <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1955,35 +1961,35 @@
       <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="1">
         <v>10345</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="21" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2015,35 +2021,35 @@
       <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="1">
         <v>10344</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2072,13 +2078,13 @@
       <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="24" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -2087,28 +2093,28 @@
       <c r="M6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="2">
         <v>10343</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="24" t="s">
+      <c r="S6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="24" t="s">
+      <c r="T6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="27" t="s">
+      <c r="U6" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2137,13 +2143,13 @@
       <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -2152,25 +2158,25 @@
       <c r="M7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="20" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="1">
         <v>10342</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="20" t="s">
+      <c r="Q7" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="26" t="s">
+      <c r="R7" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="26" t="s">
+      <c r="S7" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="20" t="s">
+      <c r="T7" s="21" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2199,13 +2205,13 @@
       <c r="H8" s="11">
         <v>7</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -2214,28 +2220,28 @@
       <c r="M8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="N8" s="24" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="2">
         <v>10341</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="29" t="s">
         <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="27" t="s">
+      <c r="T8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="27" t="s">
+      <c r="U8" s="29" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2264,10 +2270,10 @@
       <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="7" t="s">
         <v>91</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>92</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="19"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="5">
@@ -2302,10 +2308,10 @@
       <c r="H10" s="6">
         <v>9</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="7" t="s">
         <v>96</v>
       </c>
@@ -2313,7 +2319,7 @@
         <v>92</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="19"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="5">
@@ -2340,10 +2346,10 @@
       <c r="H11" s="6">
         <v>10</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="7" t="s">
         <v>100</v>
       </c>
@@ -2351,7 +2357,7 @@
         <v>92</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="19"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="5">
@@ -2378,10 +2384,10 @@
       <c r="H12" s="6">
         <v>11</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="7" t="s">
         <v>104</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>92</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="5">
@@ -2416,10 +2422,10 @@
       <c r="H13" s="6">
         <v>12</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="19"/>
       <c r="K13" s="7" t="s">
         <v>108</v>
       </c>
@@ -2427,7 +2433,7 @@
         <v>92</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="19"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="5">
@@ -2454,13 +2460,13 @@
       <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2489,20 +2495,20 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="20" t="s">
         <v>117</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="19" t="s">
+      <c r="N15" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2531,20 +2537,20 @@
       <c r="H16" s="5">
         <v>3</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="20" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="19" t="s">
+      <c r="N16" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2573,13 +2579,13 @@
       <c r="H17" s="5">
         <v>4</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="20" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
@@ -2588,7 +2594,7 @@
       <c r="M17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="19" t="s">
+      <c r="N17" s="20" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2617,10 +2623,10 @@
       <c r="H18" s="6">
         <v>1</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="19" t="s">
         <v>131</v>
       </c>
       <c r="K18" s="7"/>
@@ -2650,10 +2656,10 @@
       <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="19"/>
       <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
@@ -2686,10 +2692,10 @@
       <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="19"/>
       <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
@@ -2722,10 +2728,10 @@
       <c r="H21" s="5">
         <v>3</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="19"/>
       <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
@@ -2758,10 +2764,10 @@
       <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="19"/>
       <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
@@ -2794,10 +2800,10 @@
       <c r="H23" s="6">
         <v>5</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="7" t="s">
         <v>108</v>
       </c>
@@ -2806,40 +2812,40 @@
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:20">
-      <c r="A24">
+      <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="16">
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="16">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16" t="s">
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="16">
         <v>13</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="16" t="s">
         <v>153</v>
       </c>
       <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="28" t="s">
         <v>155</v>
       </c>
       <c r="M24" t="s">
@@ -2851,19 +2857,19 @@
       <c r="O24">
         <v>10564</v>
       </c>
-      <c r="P24" s="24" t="s">
+      <c r="P24" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="Q24" s="27" t="s">
+      <c r="Q24" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="R24" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="T24" s="27" t="s">
+      <c r="T24" s="29" t="s">
         <v>87</v>
       </c>
     </row>

--- a/config_6.1/item_gun_config.xlsx
+++ b/config_6.1/item_gun_config.xlsx
@@ -655,7 +655,7 @@
     <t>海王炮台</t>
   </si>
   <si>
-    <t>海王之力：瞬间提高子弹280%的杀伤力\n排名加成：通行证中领取加成权限后当周达人榜数据加成\n被动效果：提高击杀BOSS的概率</t>
+    <t>海王之力：瞬间提高子弹280%的杀伤力\n被动效果：提高击杀BOSS的概率</t>
   </si>
   <si>
     <t>"buygift",10564,</t>
@@ -712,7 +712,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,15 +742,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,25 +763,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,16 +778,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +802,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,37 +849,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,13 +887,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,163 +1013,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,17 +1101,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,6 +1138,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1159,42 +1179,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,139 +1218,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1397,9 +1397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,7 +1764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1827,31 +1824,31 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1883,10 +1880,10 @@
       <c r="I2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="7"/>
@@ -1919,17 +1916,17 @@
       <c r="I3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>29</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1961,35 +1958,35 @@
       <c r="I4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="20" t="s">
+      <c r="N4" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O4" s="1">
         <v>10345</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2021,35 +2018,35 @@
       <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="1">
         <v>10344</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="20" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2078,13 +2075,13 @@
       <c r="H6" s="11">
         <v>5</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="12" t="s">
@@ -2093,28 +2090,28 @@
       <c r="M6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N6" s="24" t="s">
+      <c r="N6" s="23" t="s">
         <v>31</v>
       </c>
       <c r="O6" s="2">
         <v>10343</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="U6" s="29" t="s">
+      <c r="U6" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2143,13 +2140,13 @@
       <c r="H7" s="5">
         <v>6</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
@@ -2158,25 +2155,25 @@
       <c r="M7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="20" t="s">
+      <c r="N7" s="19" t="s">
         <v>31</v>
       </c>
       <c r="O7" s="1">
         <v>10342</v>
       </c>
-      <c r="P7" s="27" t="s">
+      <c r="P7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="R7" s="27" t="s">
+      <c r="R7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="S7" s="27" t="s">
+      <c r="S7" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="T7" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2205,13 +2202,13 @@
       <c r="H8" s="11">
         <v>7</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="23" t="s">
         <v>56</v>
       </c>
       <c r="L8" s="12" t="s">
@@ -2220,28 +2217,28 @@
       <c r="M8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="24" t="s">
+      <c r="N8" s="23" t="s">
         <v>31</v>
       </c>
       <c r="O8" s="2">
         <v>10341</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="28" t="s">
         <v>84</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="28" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2270,10 +2267,10 @@
       <c r="H9" s="6">
         <v>8</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="19"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="7" t="s">
         <v>91</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>92</v>
       </c>
       <c r="M9" s="7"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="19"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="5">
@@ -2308,10 +2305,10 @@
       <c r="H10" s="6">
         <v>9</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="7" t="s">
         <v>96</v>
       </c>
@@ -2319,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="19"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="5">
@@ -2346,10 +2343,10 @@
       <c r="H11" s="6">
         <v>10</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="19"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="7" t="s">
         <v>100</v>
       </c>
@@ -2357,7 +2354,7 @@
         <v>92</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="19"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="5">
@@ -2384,10 +2381,10 @@
       <c r="H12" s="6">
         <v>11</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="19"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="7" t="s">
         <v>104</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>92</v>
       </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="19"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="5">
@@ -2422,10 +2419,10 @@
       <c r="H13" s="6">
         <v>12</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="19"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="7" t="s">
         <v>108</v>
       </c>
@@ -2433,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="M13" s="7"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="19"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:11">
       <c r="A14" s="5">
@@ -2460,13 +2457,13 @@
       <c r="H14" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2495,20 +2492,20 @@
       <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>117</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2537,20 +2534,20 @@
       <c r="H16" s="5">
         <v>3</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="7"/>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2579,13 +2576,13 @@
       <c r="H17" s="5">
         <v>4</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
@@ -2594,7 +2591,7 @@
       <c r="M17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="N17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2623,10 +2620,10 @@
       <c r="H18" s="6">
         <v>1</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="18" t="s">
         <v>131</v>
       </c>
       <c r="K18" s="7"/>
@@ -2656,10 +2653,10 @@
       <c r="H19" s="6">
         <v>1</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="19"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="7" t="s">
         <v>135</v>
       </c>
@@ -2692,10 +2689,10 @@
       <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="7" t="s">
         <v>139</v>
       </c>
@@ -2728,10 +2725,10 @@
       <c r="H21" s="5">
         <v>3</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="J21" s="19"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="7" t="s">
         <v>143</v>
       </c>
@@ -2764,10 +2761,10 @@
       <c r="H22" s="5">
         <v>4</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="J22" s="19"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="7" t="s">
         <v>147</v>
       </c>
@@ -2800,10 +2797,10 @@
       <c r="H23" s="6">
         <v>5</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="J23" s="19"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="7" t="s">
         <v>108</v>
       </c>
@@ -2812,40 +2809,40 @@
       </c>
     </row>
     <row r="24" ht="15.75" spans="1:20">
-      <c r="A24" s="16">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="3">
         <v>13</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="3">
         <v>3</v>
       </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="3">
         <v>13</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="3" t="s">
         <v>153</v>
       </c>
       <c r="J24" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="28" t="s">
+      <c r="L24" s="27" t="s">
         <v>155</v>
       </c>
       <c r="M24" t="s">
@@ -2857,19 +2854,19 @@
       <c r="O24">
         <v>10564</v>
       </c>
-      <c r="P24" s="25" t="s">
+      <c r="P24" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="R24" s="28" t="s">
+      <c r="R24" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="S24" s="28" t="s">
+      <c r="S24" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="T24" s="29" t="s">
+      <c r="T24" s="28" t="s">
         <v>87</v>
       </c>
     </row>

--- a/config_6.1/item_gun_config.xlsx
+++ b/config_6.1/item_gun_config.xlsx
@@ -649,7 +649,7 @@
     <t>gun_barrel_13</t>
   </si>
   <si>
-    <t>3dby_icon_p7</t>
+    <t>3dby_icon_phw</t>
   </si>
   <si>
     <t>海王炮台</t>
@@ -679,8 +679,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -712,22 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,7 +727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -755,31 +740,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,7 +757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,11 +771,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,11 +786,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,6 +804,44 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -849,15 +854,10 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -887,181 +887,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,28 +1101,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,15 +1127,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1169,8 +1149,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,17 +1179,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1206,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,137 +1218,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1764,7 +1764,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_6.1/item_gun_config.xlsx
+++ b/config_6.1/item_gun_config.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="159">
   <si>
     <t>id|行号</t>
   </si>
@@ -658,10 +658,7 @@
     <t>海王之力：瞬间提高子弹280%的杀伤力\n被动效果：提高击杀BOSS的概率</t>
   </si>
   <si>
-    <t>"buygift",10564,</t>
-  </si>
-  <si>
-    <t>购买立得海王炮台（30天）</t>
+    <t>"sys_txz","choose",</t>
   </si>
   <si>
     <t>"&lt;color=#fff173&gt;海王之力：瞬间提高子弹280%的杀伤力&lt;/color&gt;","&lt;color=#00fff0&gt;被动效果：提高击杀BOSS的概率&lt;/color&gt;"</t>
@@ -678,9 +675,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -718,31 +715,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,8 +745,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,47 +776,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,7 +801,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -845,8 +821,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,10 +846,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -887,19 +884,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,157 +1040,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,17 +1098,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,6 +1118,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,52 +1175,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,10 +1203,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1218,137 +1215,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1761,10 +1758,10 @@
   <sheetPr/>
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2845,26 +2842,20 @@
       <c r="L24" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24">
-        <v>10564</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="Q24" s="28" t="s">
         <v>84</v>
       </c>
       <c r="R24" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="S24" s="27" t="s">
         <v>158</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>159</v>
       </c>
       <c r="T24" s="28" t="s">
         <v>87</v>
